--- a/FeeData.xlsx
+++ b/FeeData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6044E0DE-5BB7-48F2-BBE7-6C10670B0637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="27795" windowHeight="14880" activeTab="2"/>
+    <workbookView xWindow="-19920" yWindow="3255" windowWidth="17685" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="39">
   <si>
     <t>Amount</t>
   </si>
@@ -132,12 +133,18 @@
   </si>
   <si>
     <t>Maybe Card Issue</t>
+  </si>
+  <si>
+    <t>4761730000000011</t>
+  </si>
+  <si>
+    <t>4000056655665556</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,6 +286,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -314,6 +338,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,11 +530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -563,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -583,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -603,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -663,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -803,11 +844,14 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1205,14 +1249,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1529,5 +1576,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/FeeData.xlsx
+++ b/FeeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6044E0DE-5BB7-48F2-BBE7-6C10670B0637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEBE5C3-9BE3-4C8F-842B-A072D3447B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19920" yWindow="3255" windowWidth="17685" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3945" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="38">
   <si>
     <t>Amount</t>
   </si>
@@ -126,9 +126,6 @@
     <t>ResultText</t>
   </si>
   <si>
-    <t>VALIDATION ERROR: Invalid Payment Account Number</t>
-  </si>
-  <si>
     <t>No Defect</t>
   </si>
   <si>
@@ -138,7 +135,7 @@
     <t>4761730000000011</t>
   </si>
   <si>
-    <t>4000056655665556</t>
+    <t>4358808486916303</t>
   </si>
 </sst>
 </file>
@@ -211,9 +208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,9 +248,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,26 +283,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,26 +318,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,24 +496,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +539,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -584,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -596,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>55</v>
       </c>
@@ -604,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -616,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -624,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -636,7 +599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -644,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -656,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>250</v>
       </c>
@@ -676,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -696,18 +659,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -716,10 +679,10 @@
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -736,7 +699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -753,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -770,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -787,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -804,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>101</v>
       </c>
@@ -821,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -854,22 +817,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -907,7 +870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -925,7 +888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -939,16 +902,16 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>10063</v>
+        <v>50063</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -962,16 +925,16 @@
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>10063</v>
+        <v>50063</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -991,7 +954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>-10</v>
       </c>
@@ -1011,7 +974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1031,7 +994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>-10</v>
       </c>
@@ -1051,7 +1014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1069,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>-10</v>
       </c>
@@ -1087,7 +1050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1105,7 +1068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>-10</v>
       </c>
@@ -1123,7 +1086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1143,7 +1106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -1160,7 +1123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -1177,7 +1140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -1192,7 +1155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -1207,7 +1170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -1227,7 +1190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -1260,23 +1223,23 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -1322,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>55</v>
       </c>
@@ -1342,7 +1305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -1362,7 +1325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1382,7 +1345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>250</v>
       </c>
@@ -1402,7 +1365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -1422,18 +1385,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1442,10 +1405,10 @@
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1463,7 +1426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1481,7 +1444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1499,7 +1462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1517,7 +1480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1535,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>101</v>
       </c>
@@ -1553,7 +1516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>10</v>
       </c>
